--- a/public/asset/files/product_vn.xlsx
+++ b/public/asset/files/product_vn.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+  <si>
+    <t>TT xử lý</t>
+  </si>
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -22,7 +25,7 @@
     <t>Nhóm sản phẩm</t>
   </si>
   <si>
-    <t>Đơn vị tính</t>
+    <t>Đơn vị tính nhỏ nhất</t>
   </si>
   <si>
     <t>Mã vạch</t>
@@ -58,91 +61,104 @@
     <t>Quá liều và cách xử lý</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>packing</t>
-  </si>
-  <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>designate</t>
-  </si>
-  <si>
-    <t>contraind</t>
-  </si>
-  <si>
-    <t>dosage</t>
-  </si>
-  <si>
-    <t>manufact</t>
-  </si>
-  <si>
-    <t>interact</t>
-  </si>
-  <si>
-    <t>storages</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>overdose</t>
+    <t>SL tồn kho 
+(theo đv nhỏ nhất)</t>
+  </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
+  <si>
+    <t>Số lô</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn SD
+dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hạn mức  kho tối thiểu
+ (theo đv nhỏ nhất) </t>
+  </si>
+  <si>
+    <t>Hạn mức kho  tối đa
+ (theo đv nhỏ nhất)</t>
+  </si>
+  <si>
+    <t>Giá nhập</t>
+  </si>
+  <si>
+    <t>Tỷ lệ % thuế VAT nhập</t>
+  </si>
+  <si>
+    <t>Giá bán lẻ</t>
+  </si>
+  <si>
+    <t>Giá bán sỉ</t>
+  </si>
+  <si>
+    <t>Tỷ lệ % thuế VAT xuất</t>
+  </si>
+  <si>
+    <t>Đơn vị tính khác</t>
+  </si>
+  <si>
+    <t>Tỷ lệ chuyển đổi tương ứng ra đơn vị nhỏ nhất</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM 1</t>
+  </si>
+  <si>
+    <t>DƯỢC PHẨM</t>
+  </si>
+  <si>
+    <t>VỈ</t>
+  </si>
+  <si>
+    <t>barcode_sp0001</t>
+  </si>
+  <si>
+    <t>bào chế 1</t>
+  </si>
+  <si>
+    <t>thành phần 1</t>
+  </si>
+  <si>
+    <t>chỉ định 1</t>
+  </si>
+  <si>
+    <t>chống 1</t>
+  </si>
+  <si>
+    <t>liều 1</t>
+  </si>
+  <si>
+    <t>xuất xứ 1</t>
+  </si>
+  <si>
+    <t>tương tác 1</t>
+  </si>
+  <si>
+    <t>điều kiện 1</t>
+  </si>
+  <si>
+    <t>tác dụng phụ 1</t>
+  </si>
+  <si>
+    <t>quá liều 1</t>
+  </si>
+  <si>
+    <t>lot_no 123</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>HỘP</t>
   </si>
   <si>
     <t>SẢN PHẨM 2</t>
   </si>
   <si>
-    <t>DƯỢC PHẨM</t>
-  </si>
-  <si>
-    <t>VỈ</t>
-  </si>
-  <si>
-    <t>barcode_sp0001</t>
-  </si>
-  <si>
-    <t>bào chế 1</t>
-  </si>
-  <si>
-    <t>thành phần 1</t>
-  </si>
-  <si>
-    <t>chỉ định 1</t>
-  </si>
-  <si>
-    <t>chống 1</t>
-  </si>
-  <si>
-    <t>liều 1</t>
-  </si>
-  <si>
-    <t>xuất xứ 1</t>
-  </si>
-  <si>
-    <t>tương tác 1</t>
-  </si>
-  <si>
-    <t>điều kiện 1</t>
-  </si>
-  <si>
-    <t>tác dụng phụ 1</t>
-  </si>
-  <si>
-    <t>quá liều 1</t>
+    <t>SẢN PHẨM 3</t>
   </si>
 </sst>
 </file>
@@ -157,14 +173,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,14 +197,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -405,22 +425,29 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="15.43"/>
-    <col customWidth="1" min="4" max="4" width="10.57"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
-    <col customWidth="1" min="6" max="6" width="17.29"/>
-    <col customWidth="1" min="7" max="7" width="20.86"/>
-    <col customWidth="1" min="8" max="8" width="9.71"/>
-    <col customWidth="1" min="9" max="9" width="14.0"/>
-    <col customWidth="1" min="10" max="10" width="21.43"/>
-    <col customWidth="1" min="11" max="11" width="9.29"/>
-    <col customWidth="1" min="12" max="12" width="15.29"/>
-    <col customWidth="1" min="13" max="13" width="18.29"/>
-    <col customWidth="1" min="14" max="14" width="13.86"/>
-    <col customWidth="1" min="15" max="15" width="20.14"/>
-    <col customWidth="1" min="16" max="26" width="8.71"/>
+    <col customWidth="1" hidden="1" min="1" max="1" width="8.43"/>
+    <col customWidth="1" min="2" max="2" width="12.43"/>
+    <col customWidth="1" min="3" max="3" width="17.86"/>
+    <col customWidth="1" min="4" max="4" width="15.43"/>
+    <col customWidth="1" min="5" max="5" width="9.29"/>
+    <col customWidth="1" min="6" max="6" width="18.14"/>
+    <col customWidth="1" min="7" max="7" width="17.29"/>
+    <col customWidth="1" min="8" max="8" width="20.86"/>
+    <col customWidth="1" min="9" max="9" width="9.71"/>
+    <col customWidth="1" min="10" max="10" width="14.0"/>
+    <col customWidth="1" min="11" max="11" width="18.43"/>
+    <col customWidth="1" min="12" max="12" width="9.29"/>
+    <col customWidth="1" min="13" max="13" width="15.29"/>
+    <col customWidth="1" min="14" max="14" width="18.29"/>
+    <col customWidth="1" min="15" max="15" width="13.86"/>
+    <col customWidth="1" min="16" max="16" width="13.71"/>
+    <col customWidth="1" min="17" max="17" width="15.86"/>
+    <col customWidth="1" min="18" max="19" width="8.86"/>
+    <col customWidth="1" min="20" max="20" width="13.43"/>
+    <col customWidth="1" min="21" max="21" width="18.29"/>
+    <col customWidth="1" min="22" max="22" width="17.43"/>
+    <col customWidth="1" min="23" max="28" width="8.86"/>
+    <col customWidth="1" min="29" max="29" width="19.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,7 +463,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -469,1507 +496,1696 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" hidden="1">
-      <c r="A2" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>13000.0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>11000.0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>15000.0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>14000.0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>13000.0</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="T3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>11000.0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>15000.0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>14000.0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>13000.0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>11000.0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>15000.0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>14000.0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="3"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="3"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="3"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="3"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="3"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="3"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="3"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="3"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="3"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="3"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="3"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="3"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="3"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="3"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="3"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="3"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="1"/>
-      <c r="D350" s="1"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="1"/>
-      <c r="D351" s="1"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="1"/>
-      <c r="D352" s="1"/>
-    </row>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1"/>
     <row r="353" ht="15.75" customHeight="1"/>
     <row r="354" ht="15.75" customHeight="1"/>
     <row r="355" ht="15.75" customHeight="1"/>
@@ -2617,13 +2833,12 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:D352">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB2:AB4 E2:E351">
       <formula1>"CÁI,ỐNG,VIÊN,VỈ,BỊCH,LỌ,CHAI,TUÝP,HỘP,THÙNG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C352">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D351">
       <formula1>"DƯỢC PHẨM,THỰC PHẨM CHỨC NĂNG,HÀNG HOÁ KHÁC,VẬT TƯ Y TẾ"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/asset/files/product_vn.xlsx
+++ b/public/asset/files/product_vn.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TT xử lý</t>
-  </si>
-  <si>
-    <t>Mã sản phẩm</t>
   </si>
   <si>
     <t>Tên sản phẩm</t>
@@ -153,19 +150,13 @@
   </si>
   <si>
     <t>HỘP</t>
-  </si>
-  <si>
-    <t>SẢN PHẨM 2</t>
-  </si>
-  <si>
-    <t>SẢN PHẨM 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -174,6 +165,10 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -197,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -209,6 +204,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -426,28 +422,27 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" hidden="1" min="1" max="1" width="8.43"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="17.86"/>
-    <col customWidth="1" min="4" max="4" width="15.43"/>
-    <col customWidth="1" min="5" max="5" width="9.29"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="17.29"/>
-    <col customWidth="1" min="8" max="8" width="20.86"/>
-    <col customWidth="1" min="9" max="9" width="9.71"/>
-    <col customWidth="1" min="10" max="10" width="14.0"/>
-    <col customWidth="1" min="11" max="11" width="18.43"/>
-    <col customWidth="1" min="12" max="12" width="9.29"/>
-    <col customWidth="1" min="13" max="13" width="15.29"/>
-    <col customWidth="1" min="14" max="14" width="18.29"/>
-    <col customWidth="1" min="15" max="15" width="13.86"/>
-    <col customWidth="1" min="16" max="16" width="13.71"/>
-    <col customWidth="1" min="17" max="17" width="15.86"/>
-    <col customWidth="1" min="18" max="19" width="8.86"/>
-    <col customWidth="1" min="20" max="20" width="13.43"/>
-    <col customWidth="1" min="21" max="21" width="18.29"/>
-    <col customWidth="1" min="22" max="22" width="17.43"/>
-    <col customWidth="1" min="23" max="28" width="8.86"/>
-    <col customWidth="1" min="29" max="29" width="19.86"/>
+    <col customWidth="1" min="2" max="2" width="17.86"/>
+    <col customWidth="1" min="3" max="3" width="15.43"/>
+    <col customWidth="1" min="4" max="4" width="9.29"/>
+    <col customWidth="1" min="5" max="5" width="18.14"/>
+    <col customWidth="1" min="6" max="6" width="17.29"/>
+    <col customWidth="1" min="7" max="7" width="20.86"/>
+    <col customWidth="1" min="8" max="8" width="9.71"/>
+    <col customWidth="1" min="9" max="9" width="14.0"/>
+    <col customWidth="1" min="10" max="10" width="18.43"/>
+    <col customWidth="1" min="11" max="11" width="9.29"/>
+    <col customWidth="1" min="12" max="12" width="15.29"/>
+    <col customWidth="1" min="13" max="13" width="18.29"/>
+    <col customWidth="1" min="14" max="14" width="13.86"/>
+    <col customWidth="1" min="15" max="15" width="13.71"/>
+    <col customWidth="1" min="16" max="16" width="15.86"/>
+    <col customWidth="1" min="17" max="18" width="8.86"/>
+    <col customWidth="1" min="19" max="19" width="13.43"/>
+    <col customWidth="1" min="20" max="20" width="18.29"/>
+    <col customWidth="1" min="21" max="21" width="17.43"/>
+    <col customWidth="1" min="22" max="27" width="8.86"/>
+    <col customWidth="1" min="28" max="28" width="19.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,10 +455,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -493,19 +488,19 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -514,19 +509,19 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -534,15 +529,15 @@
       </c>
       <c r="AB1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>0.0</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
@@ -582,1609 +577,1436 @@
       <c r="O2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>13000.0</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>11000.0</v>
+      </c>
+      <c r="W2" s="3">
         <v>10.0</v>
       </c>
-      <c r="R2" s="3">
-        <v>13000.0</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="X2" s="3">
+        <v>15000.0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>14000.0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2000.0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>11000.0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>14000.0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="AB2" s="3">
         <v>100.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>13000.0</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>2000.0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>11000.0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>14000.0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>100.0</v>
-      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>13000.0</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2000.0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>11000.0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>14000.0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>100.0</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5">
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6">
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7">
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
     </row>
     <row r="8">
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
     </row>
     <row r="9">
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
     </row>
     <row r="10">
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
     </row>
     <row r="11">
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12">
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
     </row>
     <row r="13">
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
     </row>
     <row r="14">
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
     </row>
     <row r="15">
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
     </row>
     <row r="16">
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
     </row>
     <row r="17">
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
+      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
+      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
+      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
+      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
+      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
+      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
+      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
+      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
+      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
+      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
+      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
+      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
+      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
+      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
+      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
+      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
+      <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
+      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
+      <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
+      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
+      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
+      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
+      <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
+      <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
+      <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
+      <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
+      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
+      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
+      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
+      <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
+      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
+      <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
+      <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
+      <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
+      <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
+      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
+      <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
+      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
+      <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
+      <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
+      <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
+      <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
+      <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
+      <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
+      <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
+      <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
+      <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
+      <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
+      <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
+      <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
+      <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
+      <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
+      <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
+      <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
+      <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
+      <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
+      <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
+      <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
+      <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
+      <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
+      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
+      <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
+      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
+      <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
+      <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
+      <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
+      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
+      <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
+      <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
+      <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
+      <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
+      <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
+      <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
+      <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
+      <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
+      <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
+      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
+      <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
+      <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
+      <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
+      <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
+      <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
+      <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
+      <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
+      <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
+      <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
+      <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
+      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
+      <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
+      <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
+      <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
+      <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
+      <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
+      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
+      <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
+      <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
+      <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
+      <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
+      <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
+      <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
+      <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
+      <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
+      <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
+      <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
+      <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
+      <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
+      <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
+      <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
+      <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
+      <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
+      <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
+      <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
+      <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
+      <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
+      <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
+      <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
+      <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
+      <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
+      <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
+      <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
+      <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
+      <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
+      <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
+      <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
+      <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
+      <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
+      <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
+      <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
+      <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
+      <c r="C191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
+      <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
+      <c r="C193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
+      <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
+      <c r="C195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
+      <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
+      <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
+      <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
+      <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
+      <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
+      <c r="C201" s="3"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
+      <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
+      <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
+      <c r="C204" s="3"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
+      <c r="C205" s="3"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
+      <c r="C206" s="3"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
+      <c r="C207" s="3"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
+      <c r="C208" s="3"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
+      <c r="C209" s="3"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
+      <c r="C210" s="3"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
+      <c r="C211" s="3"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
+      <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
+      <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
+      <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
+      <c r="C215" s="3"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
+      <c r="C216" s="3"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="3"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="3"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
-    </row>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
     <row r="352" ht="15.75" customHeight="1"/>
     <row r="353" ht="15.75" customHeight="1"/>
     <row r="354" ht="15.75" customHeight="1"/>
@@ -2832,13 +2654,12 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB2:AB4 E2:E351">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AA2 D2:D349">
       <formula1>"CÁI,ỐNG,VIÊN,VỈ,BỊCH,LỌ,CHAI,TUÝP,HỘP,THÙNG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D351">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C349">
       <formula1>"DƯỢC PHẨM,THỰC PHẨM CHỨC NĂNG,HÀNG HOÁ KHÁC,VẬT TƯ Y TẾ"</formula1>
     </dataValidation>
   </dataValidations>
